--- a/bots/crawl_ch/output/electronics_2022-08-02.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-02.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1950,48 +1950,50 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2001,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2016,29 +2018,29 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2047,10 +2049,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2059,12 +2061,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2074,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2089,55 +2091,53 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2157,39 +2157,39 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2228,17 +2228,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -3865,131 +3865,131 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:56</t>
+          <t>2022-08-02 20:57:25</t>
         </is>
       </c>
     </row>
